--- a/data/trans_dic/iP30B6_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B6_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>19,24%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,74; 22,13</t>
+          <t>14,21; 24,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,86; 23,07</t>
+          <t>14,95; 24,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,0; 21,6</t>
+          <t>15,9; 22,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>18,62%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,21; 24,12</t>
+          <t>14,74; 22,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,95; 24,74</t>
+          <t>14,86; 23,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,9; 22,52</t>
+          <t>16,0; 21,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B6_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B6_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,35; 24,11</t>
+          <t>10,16; 30,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,42; 20,11</t>
+          <t>3,71; 17,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,31; 20,45</t>
+          <t>8,38; 19,96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>18,51%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,21; 24,12</t>
+          <t>13,76; 23,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 24,74</t>
+          <t>14,23; 24,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,9; 22,52</t>
+          <t>15,07; 22,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>19,65%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 22,13</t>
+          <t>14,92; 25,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,86; 23,07</t>
+          <t>13,69; 25,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,0; 21,6</t>
+          <t>16,01; 23,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>18,48%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,17; 21,71</t>
+          <t>13,69; 23,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,19</t>
+          <t>14,52; 24,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,57; 20,55</t>
+          <t>15,23; 22,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18,3%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16,0; 21,35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 21,33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16,46; 20,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/iP30B6_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B6_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 30,13</t>
+          <t>9,04; 27,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 17,63</t>
+          <t>4,19; 18,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,38; 19,96</t>
+          <t>8,21; 19,48</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 23,06</t>
+          <t>13,64; 23,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 24,83</t>
+          <t>14,23; 24,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,07; 22,47</t>
+          <t>15,12; 21,99</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 25,14</t>
+          <t>14,91; 25,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,69; 25,02</t>
+          <t>14,36; 24,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,01; 23,65</t>
+          <t>16,06; 23,2</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 23,39</t>
+          <t>14,13; 23,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,52; 24,38</t>
+          <t>14,39; 24,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,23; 22,12</t>
+          <t>15,39; 21,95</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,0; 21,35</t>
+          <t>16,22; 21,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,33</t>
+          <t>15,65; 21,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,46; 20,44</t>
+          <t>16,52; 20,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B6_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B6_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>12,97%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,04; 27,69</t>
+          <t>3,25; 16,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 18,14</t>
+          <t>9,72; 28,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 19,48</t>
+          <t>8,54; 20,49</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>18,32%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,64; 23,3</t>
+          <t>13,89; 24,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 24,25</t>
+          <t>13,69; 23,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 21,99</t>
+          <t>14,98; 21,57</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>19,98%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,91; 25,29</t>
+          <t>14,52; 26,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,36; 24,94</t>
+          <t>15,13; 26,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,06; 23,2</t>
+          <t>16,47; 23,98</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>17,94%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 23,27</t>
+          <t>11,54; 22,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,39; 24,5</t>
+          <t>13,74; 24,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 21,95</t>
+          <t>14,36; 22,12</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,22; 21,97</t>
+          <t>14,12; 20,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,65; 21,04</t>
+          <t>16,35; 22,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,52; 20,36</t>
+          <t>16,18; 20,48</t>
         </is>
       </c>
     </row>
